--- a/data/results_pvp_attack.xlsx
+++ b/data/results_pvp_attack.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>score</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Shudde_M'ell</t>
+  </si>
+  <si>
+    <t>Skuld</t>
   </si>
   <si>
     <t>Tesla</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-46</v>
+        <v>-92</v>
       </c>
       <c r="C2">
-        <v>0.4368333333333334</v>
+        <v>0.33475</v>
       </c>
       <c r="D2">
-        <v>46831</v>
+        <v>46361</v>
       </c>
       <c r="E2">
-        <v>37117</v>
+        <v>36731</v>
       </c>
       <c r="F2">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="J2">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L2">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M2">
-        <v>5.92</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -626,19 +629,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>0.5558333333333333</v>
+        <v>0.5085</v>
       </c>
       <c r="D3">
-        <v>413432</v>
+        <v>419056</v>
       </c>
       <c r="E3">
-        <v>107597</v>
+        <v>94118</v>
       </c>
       <c r="F3">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -647,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L3">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="M3">
-        <v>4.09</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -667,19 +670,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>0.51625</v>
+        <v>0.4920833333333333</v>
       </c>
       <c r="D4">
-        <v>237067</v>
+        <v>237411</v>
       </c>
       <c r="E4">
-        <v>87368</v>
+        <v>86357</v>
       </c>
       <c r="F4">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -688,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="L4">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="M4">
-        <v>5.22</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -708,19 +711,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.49725</v>
+        <v>0.4655833333333333</v>
       </c>
       <c r="D5">
-        <v>318353</v>
+        <v>337402</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -729,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="J5">
         <v>0.52</v>
       </c>
       <c r="K5">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="L5">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="M5">
-        <v>3.56</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -749,19 +752,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>0.5571666666666667</v>
+        <v>0.53025</v>
       </c>
       <c r="D6">
-        <v>507251</v>
+        <v>572540</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="J6">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="K6">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L6">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="M6">
-        <v>3.47</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -790,19 +793,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>-58</v>
+        <v>-26</v>
       </c>
       <c r="C7">
-        <v>0.422</v>
+        <v>0.4175833333333333</v>
       </c>
       <c r="D7">
-        <v>143843</v>
+        <v>147451</v>
       </c>
       <c r="E7">
-        <v>21146</v>
+        <v>22046</v>
       </c>
       <c r="F7">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -811,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="L7">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M7">
-        <v>4.17</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -831,40 +834,40 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8">
-        <v>0.6293333333333333</v>
+        <v>0.5744166666666667</v>
       </c>
       <c r="D8">
-        <v>244486</v>
+        <v>242739</v>
       </c>
       <c r="E8">
-        <v>454424</v>
+        <v>446458</v>
       </c>
       <c r="F8">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G8">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="H8">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="J8">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="K8">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="L8">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="M8">
-        <v>5.93</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -872,28 +875,28 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>-66</v>
+        <v>-40</v>
       </c>
       <c r="C9">
-        <v>0.4115</v>
+        <v>0.3998333333333333</v>
       </c>
       <c r="D9">
-        <v>182779</v>
+        <v>203345</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="G9">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -902,10 +905,10 @@
         <v>0.21</v>
       </c>
       <c r="L9">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="M9">
-        <v>3.28</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,40 +916,40 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>0.5605</v>
+        <v>0.5384166666666667</v>
       </c>
       <c r="D10">
-        <v>287010</v>
+        <v>313849</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="L10">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="M10">
-        <v>4.76</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -954,40 +957,40 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>-52</v>
+        <v>-22</v>
       </c>
       <c r="C11">
-        <v>0.4291666666666666</v>
+        <v>0.42275</v>
       </c>
       <c r="D11">
-        <v>154202</v>
+        <v>173451</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="G11">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="J11">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L11">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="M11">
-        <v>4.6</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,19 +998,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>-45</v>
       </c>
       <c r="C12">
-        <v>0.5060833333333333</v>
+        <v>0.3941666666666667</v>
       </c>
       <c r="D12">
-        <v>148714</v>
+        <v>148672</v>
       </c>
       <c r="E12">
-        <v>35727</v>
+        <v>36686</v>
       </c>
       <c r="F12">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1016,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="J12">
-        <v>3.08</v>
+        <v>3.87</v>
       </c>
       <c r="K12">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="L12">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="M12">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1036,40 +1039,40 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>0.5336666666666666</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="D13">
-        <v>160017</v>
+        <v>166161</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G13">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="J13">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="K13">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="L13">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="M13">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1077,19 +1080,19 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0.4739166666666667</v>
+        <v>0.45275</v>
       </c>
       <c r="D14">
-        <v>321336</v>
+        <v>332229</v>
       </c>
       <c r="E14">
-        <v>38934</v>
+        <v>32722</v>
       </c>
       <c r="F14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1098,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="J14">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="L14">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="M14">
-        <v>4.3</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1121,37 +1124,37 @@
         <v>150</v>
       </c>
       <c r="C15">
-        <v>0.6815</v>
+        <v>0.6373333333333333</v>
       </c>
       <c r="D15">
-        <v>383113</v>
+        <v>401080</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="G15">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="L15">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="M15">
-        <v>5.67</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1159,40 +1162,40 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>-13</v>
       </c>
       <c r="C16">
-        <v>0.5253333333333333</v>
+        <v>0.4345833333333333</v>
       </c>
       <c r="D16">
-        <v>217249</v>
+        <v>229651</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.24</v>
+        <v>3.81</v>
       </c>
       <c r="I16">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="J16">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="K16">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="L16">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="M16">
-        <v>4.21</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1200,40 +1203,40 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C17">
-        <v>0.632</v>
+        <v>0.61725</v>
       </c>
       <c r="D17">
-        <v>315686</v>
+        <v>402433</v>
       </c>
       <c r="E17">
-        <v>35339</v>
+        <v>19112</v>
       </c>
       <c r="F17">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="G17">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="J17">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="K17">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="L17">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="M17">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,19 +1244,19 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>-45</v>
+        <v>-20</v>
       </c>
       <c r="C18">
-        <v>0.4380833333333333</v>
+        <v>0.4251666666666667</v>
       </c>
       <c r="D18">
-        <v>275520</v>
+        <v>300544</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1262,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="L18">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="M18">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,40 +1285,40 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>0.5439166666666667</v>
+        <v>0.5086666666666667</v>
       </c>
       <c r="D19">
-        <v>304023</v>
+        <v>321654</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="G19">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K19">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="L19">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="M19">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1323,19 +1326,19 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>-84</v>
+        <v>-54</v>
       </c>
       <c r="C20">
-        <v>0.3888333333333333</v>
+        <v>0.38225</v>
       </c>
       <c r="D20">
-        <v>108019</v>
+        <v>118379</v>
       </c>
       <c r="E20">
-        <v>126422</v>
+        <v>129882</v>
       </c>
       <c r="F20">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1344,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="J20">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="K20">
         <v>0.12</v>
       </c>
       <c r="L20">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="M20">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1364,19 +1367,19 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>-48</v>
+        <v>-94</v>
       </c>
       <c r="C21">
-        <v>0.4343333333333333</v>
+        <v>0.3325</v>
       </c>
       <c r="D21">
-        <v>150155</v>
+        <v>158687</v>
       </c>
       <c r="E21">
-        <v>73537</v>
+        <v>71986</v>
       </c>
       <c r="F21">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1385,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="J21">
-        <v>3.03</v>
+        <v>3.37</v>
       </c>
       <c r="K21">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="L21">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M21">
-        <v>5.42</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1405,19 +1408,19 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>-27</v>
       </c>
       <c r="C22">
-        <v>0.5671666666666667</v>
+        <v>0.4165</v>
       </c>
       <c r="D22">
-        <v>419545</v>
+        <v>433630</v>
       </c>
       <c r="E22">
-        <v>192479</v>
+        <v>204784</v>
       </c>
       <c r="F22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="G22">
         <v>0.44</v>
@@ -1426,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="J22">
-        <v>0.83</v>
+        <v>1.26</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L22">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="M22">
-        <v>4.94</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1446,19 +1449,19 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>-48</v>
+        <v>-79</v>
       </c>
       <c r="C23">
-        <v>0.43375</v>
+        <v>0.35175</v>
       </c>
       <c r="D23">
-        <v>143647</v>
+        <v>154796</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1467,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="J23">
-        <v>4.96</v>
+        <v>6.13</v>
       </c>
       <c r="K23">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="L23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="M23">
-        <v>3.78</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1487,19 +1490,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>0.5080833333333333</v>
+        <v>0.5058333333333334</v>
       </c>
       <c r="D24">
-        <v>348492</v>
+        <v>439367</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1508,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="J24">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="K24">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="L24">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="M24">
-        <v>4.96</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1528,40 +1531,40 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C25">
-        <v>0.8378333333333333</v>
+        <v>0.70675</v>
       </c>
       <c r="D25">
-        <v>276288</v>
+        <v>262552</v>
       </c>
       <c r="E25">
-        <v>184201</v>
+        <v>229880</v>
       </c>
       <c r="F25">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="G25">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="J25">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="K25">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="L25">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="M25">
-        <v>5.48</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1569,40 +1572,40 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>-86</v>
+        <v>-49</v>
       </c>
       <c r="C26">
-        <v>0.3868333333333333</v>
+        <v>0.3888333333333333</v>
       </c>
       <c r="D26">
-        <v>140383</v>
+        <v>138318</v>
       </c>
       <c r="E26">
-        <v>53707</v>
+        <v>44985</v>
       </c>
       <c r="F26">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="G26">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="H26">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I26">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="M26">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1610,40 +1613,40 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0.47</v>
+        <v>0.4595833333333333</v>
       </c>
       <c r="D27">
-        <v>371097</v>
+        <v>382954</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.91</v>
+        <v>1.41</v>
       </c>
       <c r="I27">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="L27">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="M27">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1651,40 +1654,40 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.44925</v>
+        <v>0.4524166666666667</v>
       </c>
       <c r="D28">
-        <v>246290</v>
+        <v>253795</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="G28">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="L28">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="M28">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1692,19 +1695,19 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>-70</v>
+        <v>-115</v>
       </c>
       <c r="C29">
-        <v>0.4065833333333334</v>
+        <v>0.3065</v>
       </c>
       <c r="D29">
-        <v>29030</v>
+        <v>26375</v>
       </c>
       <c r="E29">
-        <v>131437</v>
+        <v>124562</v>
       </c>
       <c r="F29">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1713,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="J29">
-        <v>3.3</v>
+        <v>3.68</v>
       </c>
       <c r="K29">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="L29">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="M29">
-        <v>4.82</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1733,19 +1736,19 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>-70</v>
+        <v>-35</v>
       </c>
       <c r="C30">
-        <v>0.4064166666666666</v>
+        <v>0.4071666666666667</v>
       </c>
       <c r="D30">
-        <v>188821</v>
+        <v>197934</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1754,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="J30">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="L30">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="M30">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1774,40 +1777,40 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>0.44325</v>
+        <v>0.45475</v>
       </c>
       <c r="D31">
-        <v>215526</v>
+        <v>246946</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.91</v>
+        <v>1.49</v>
       </c>
       <c r="I31">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L31">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="M31">
-        <v>4.3</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1818,16 +1821,16 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>0.50775</v>
+        <v>0.46375</v>
       </c>
       <c r="D32">
-        <v>430880</v>
+        <v>456512</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1836,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.9099999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="L32">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="M32">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1856,16 +1859,16 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C33">
-        <v>0.64875</v>
+        <v>0.5902500000000001</v>
       </c>
       <c r="D33">
-        <v>191075</v>
+        <v>192746</v>
       </c>
       <c r="E33">
-        <v>335915</v>
+        <v>331474</v>
       </c>
       <c r="F33">
         <v>1.96</v>
@@ -1874,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4.4</v>
+        <v>4.04</v>
       </c>
       <c r="I33">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="J33">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="K33">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="L33">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="M33">
-        <v>5.52</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1897,40 +1900,40 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>-14</v>
+        <v>183</v>
       </c>
       <c r="C34">
-        <v>0.4770833333333334</v>
+        <v>0.6793333333333333</v>
       </c>
       <c r="D34">
-        <v>127385</v>
+        <v>160599</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>489528</v>
       </c>
       <c r="F34">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="G34">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="K34">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="L34">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="M34">
-        <v>4.25</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1938,40 +1941,40 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>0.4943333333333333</v>
+        <v>0.49325</v>
       </c>
       <c r="D35">
-        <v>190777</v>
+        <v>148742</v>
       </c>
       <c r="E35">
-        <v>78365</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2.24</v>
+        <v>1.34</v>
       </c>
       <c r="J35">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="L35">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="M35">
-        <v>5.8</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1979,19 +1982,19 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>-63</v>
       </c>
       <c r="C36">
-        <v>0.51975</v>
+        <v>0.3714166666666667</v>
       </c>
       <c r="D36">
-        <v>82678</v>
+        <v>198412</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>87532</v>
       </c>
       <c r="F36">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2000,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.8200000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="J36">
-        <v>0.87</v>
+        <v>3.83</v>
       </c>
       <c r="K36">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="L36">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="M36">
-        <v>3.87</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2020,19 +2023,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>217</v>
+        <v>-15</v>
       </c>
       <c r="C37">
-        <v>0.7655833333333333</v>
+        <v>0.4314166666666667</v>
       </c>
       <c r="D37">
-        <v>467224</v>
+        <v>77386</v>
       </c>
       <c r="E37">
-        <v>319972</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2041,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1.76</v>
+        <v>0.88</v>
       </c>
       <c r="J37">
-        <v>0.21</v>
+        <v>1.27</v>
       </c>
       <c r="K37">
-        <v>1.08</v>
+        <v>0.08</v>
       </c>
       <c r="L37">
-        <v>0.26</v>
+        <v>0.71</v>
       </c>
       <c r="M37">
-        <v>5.61</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2061,40 +2064,40 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="C38">
-        <v>0.52</v>
+        <v>0.6855</v>
       </c>
       <c r="D38">
-        <v>114616</v>
+        <v>511235</v>
       </c>
       <c r="E38">
-        <v>201064</v>
+        <v>272985</v>
       </c>
       <c r="F38">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="G38">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="J38">
-        <v>3.3</v>
+        <v>0.44</v>
       </c>
       <c r="K38">
-        <v>0.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L38">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="M38">
-        <v>6.7</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2102,40 +2105,40 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>-28</v>
       </c>
       <c r="C39">
-        <v>0.5396666666666666</v>
+        <v>0.4150833333333334</v>
       </c>
       <c r="D39">
-        <v>241650</v>
+        <v>114921</v>
       </c>
       <c r="E39">
-        <v>110177</v>
+        <v>206148</v>
       </c>
       <c r="F39">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1.39</v>
+        <v>2.21</v>
       </c>
       <c r="J39">
-        <v>2.47</v>
+        <v>3.89</v>
       </c>
       <c r="K39">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="L39">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="M39">
-        <v>3.77</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2143,19 +2146,19 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>-19</v>
+        <v>-2</v>
       </c>
       <c r="C40">
-        <v>0.4708333333333333</v>
+        <v>0.4483333333333333</v>
       </c>
       <c r="D40">
-        <v>29176</v>
+        <v>280991</v>
       </c>
       <c r="E40">
-        <v>295586</v>
+        <v>110313</v>
       </c>
       <c r="F40">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2164,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="J40">
-        <v>2.76</v>
+        <v>3.06</v>
       </c>
       <c r="K40">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="L40">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="M40">
-        <v>4.36</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2184,19 +2187,19 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>-63</v>
+        <v>-67</v>
       </c>
       <c r="C41">
-        <v>0.4155</v>
+        <v>0.3663333333333333</v>
       </c>
       <c r="D41">
-        <v>97572</v>
+        <v>28320</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>298346</v>
       </c>
       <c r="F41">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2205,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="K41">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="L41">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="M41">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2225,13 +2228,13 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>-8</v>
+        <v>-22</v>
       </c>
       <c r="C42">
-        <v>0.48475</v>
+        <v>0.42275</v>
       </c>
       <c r="D42">
-        <v>73753</v>
+        <v>107236</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2240,25 +2243,25 @@
         <v>1.35</v>
       </c>
       <c r="G42">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="J42">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="L42">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="M42">
-        <v>4.78</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2266,40 +2269,40 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>-56</v>
+        <v>-59</v>
       </c>
       <c r="C43">
-        <v>0.424</v>
+        <v>0.3760833333333333</v>
       </c>
       <c r="D43">
-        <v>68932</v>
+        <v>73818</v>
       </c>
       <c r="E43">
-        <v>85614</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="G43">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="J43">
-        <v>0.83</v>
+        <v>2.87</v>
       </c>
       <c r="K43">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="L43">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="M43">
-        <v>5.31</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2307,40 +2310,81 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>-39</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>0.4459166666666667</v>
+        <v>0.4750833333333334</v>
       </c>
       <c r="D44">
-        <v>154782</v>
+        <v>118082</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>137884</v>
       </c>
       <c r="F44">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H44">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="K44">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="L44">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="M44">
-        <v>4.49</v>
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>-105</v>
+      </c>
+      <c r="C45">
+        <v>0.3185</v>
+      </c>
+      <c r="D45">
+        <v>146068</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1.97</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.24</v>
+      </c>
+      <c r="I45">
+        <v>1.34</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.24</v>
+      </c>
+      <c r="L45">
+        <v>0.77</v>
+      </c>
+      <c r="M45">
+        <v>4.12</v>
       </c>
     </row>
   </sheetData>
